--- a/pagelist.xlsx
+++ b/pagelist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,106 @@
   </si>
   <si>
     <t>统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indexa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indexb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuanb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yulan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiugai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiugai_video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiugai_videoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiugai_videob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiugai_videoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weilook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weidao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,7 +644,7 @@
     <col min="5" max="5" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -566,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -574,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -582,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>25</v>
       </c>
@@ -590,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -598,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -606,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -614,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -622,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -630,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -638,7 +738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -646,7 +746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>37</v>
       </c>
@@ -654,7 +754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
@@ -662,54 +762,168 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D20" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/pagelist.xlsx
+++ b/pagelist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,34 @@
   </si>
   <si>
     <t>预览二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al_read2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,32 +905,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>62</v>
       </c>
@@ -910,7 +938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
         <v>63</v>
       </c>
@@ -918,12 +946,39 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
         <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
